--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="Αυτό_το_βιβλίο_εργασίας" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexis\IdeaProjects\SynchExcel\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529A7ACC-B73B-411C-81AB-343031134CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1605" windowWidth="24240" windowHeight="12720" tabRatio="235"/>
+    <workbookView xWindow="3855" yWindow="1470" windowWidth="21600" windowHeight="12240" tabRatio="235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" ΦΥΛΛΟ 1" sheetId="1" r:id="rId1"/>
@@ -33,10 +39,18 @@
     <definedName name="ΡΕΓΓ" localSheetId="1">'για εκτυπωση'!#REF!</definedName>
     <definedName name="ΡΕΓΓ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Antonis - Προσωπική προβολή" guid="{0F821FE7-EB66-42FE-8A3F-8852A1E0F69B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="854" tabRatio="537" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3423,7 +3437,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="mm/yyyy"/>
@@ -4580,6 +4594,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4627,7 +4644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4660,9 +4677,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4695,6 +4729,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4870,7 +4921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Φύλλο1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4878,10 +4929,10 @@
   <dimension ref="A1:T1475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5580,7 +5631,7 @@
       </c>
       <c r="Q22" s="23"/>
       <c r="R22" s="16">
-        <v>43592</v>
+        <v>43782</v>
       </c>
       <c r="S22" s="165"/>
     </row>
@@ -39113,7 +39164,7 @@
       <c r="O1475" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="E13:S632">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E13:S632">
     <sortCondition ref="O13:O632"/>
     <sortCondition ref="F13:F632"/>
   </sortState>
@@ -39123,8 +39174,8 @@
       <selection pane="bottomRight" activeCell="P175" sqref="P175"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup scale="38" fitToHeight="0" orientation="landscape" verticalDpi="203" r:id="rId1"/>
-      <autoFilter ref="A10:P408">
-        <sortState ref="A11:P232">
+      <autoFilter ref="A10:P408" xr:uid="{00000000-0000-0000-0000-000000000000}">
+        <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:P232">
           <sortCondition ref="L10:L232"/>
         </sortState>
       </autoFilter>
@@ -39134,10 +39185,10 @@
     <mergeCell ref="F10:G10"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4 H6:H7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4 H6:H7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>CATEGORIES2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I690:I691">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I690:I691" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>CATEGORIES</formula1>
     </dataValidation>
   </dataValidations>
@@ -39146,7 +39197,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>LIST!$C$8:$C$54</xm:f>
           </x14:formula1>
@@ -39159,7 +39210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -48441,7 +48492,7 @@
       <c r="F1028" s="252"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K240"/>
+  <autoFilter ref="A4:K240" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
@@ -48451,7 +48502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Φύλλο2"/>
   <dimension ref="B6:C53"/>
   <sheetViews>
@@ -48846,7 +48897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -63073,7 +63124,7 @@
       <c r="J624" s="123"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J624">
+  <autoFilter ref="A1:J624" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>

--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexis\IdeaProjects\SynchExcel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529A7ACC-B73B-411C-81AB-343031134CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A5B13C-6EBA-4287-B42D-4155834B615B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1470" windowWidth="21600" windowHeight="12240" tabRatio="235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="3360" windowWidth="21600" windowHeight="12240" tabRatio="235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" ΦΥΛΛΟ 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' ΦΥΛΛΟ 1'!$A$12:$T$687</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' ΦΥΛΛΟ 1'!$A$12:$T$689</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$J$624</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'για εκτυπωση'!$A$4:$K$240</definedName>
     <definedName name="CATEGORIES">LIST!$C$8:$C$41</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1030">
   <si>
     <t>ΑΠΟΘΗΚΗ ΚΑΤΩ</t>
   </si>
@@ -3432,6 +3432,18 @@
   </si>
   <si>
     <t>ΤΕΛΕΥΤΑΙΑ ΤΙΜΗ ΑΓΟΡΑΣ</t>
+  </si>
+  <si>
+    <t>5998711723491</t>
+  </si>
+  <si>
+    <t>ΣOKOΛ. MILKA KAPAMEΛA 100GRX15</t>
+  </si>
+  <si>
+    <t>8711800114157</t>
+  </si>
+  <si>
+    <t>PRONTO KPEMA 12X250ML</t>
   </si>
 </sst>
 </file>
@@ -4929,35 +4941,35 @@
   <dimension ref="A1:T1475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="249" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="280" customWidth="1"/>
-    <col min="4" max="4" width="58" style="150" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="241" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="18" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="50" style="8" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="24" style="125" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" style="123" customWidth="1"/>
-    <col min="21" max="16384" width="14.42578125" style="8"/>
+    <col min="1" max="1" width="16.85546875" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" style="249" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.5703125" style="280" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58" style="150" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.5703125" style="8" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.42578125" style="241" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" style="8" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18" style="8" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="50" style="8" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.85546875" style="8" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="24" style="125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="69.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="26.140625" style="123" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="14.42578125" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
@@ -24811,7 +24823,9 @@
     <row r="440" spans="1:20" s="107" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="10"/>
       <c r="B440" s="10"/>
-      <c r="C440" s="10"/>
+      <c r="C440" s="10">
+        <v>0.68</v>
+      </c>
       <c r="D440" s="152">
         <v>1160037900</v>
       </c>
@@ -35348,7 +35362,9 @@
     <row r="674" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="10"/>
       <c r="B674" s="10"/>
-      <c r="C674" s="10"/>
+      <c r="C674" s="10">
+        <v>0.64</v>
+      </c>
       <c r="D674" s="152" t="s">
         <v>886</v>
       </c>
@@ -36008,74 +36024,93 @@
       <c r="T687" s="179"/>
     </row>
     <row r="688" spans="1:20" ht="27" x14ac:dyDescent="0.35">
-      <c r="F688" s="1"/>
-      <c r="O688" s="1"/>
-    </row>
-    <row r="689" spans="6:15" ht="27" x14ac:dyDescent="0.35">
-      <c r="F689" s="1"/>
-      <c r="J689" s="4"/>
-      <c r="O689" s="1"/>
-    </row>
-    <row r="690" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+      <c r="C688">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F688" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G688">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="3:15" ht="27" x14ac:dyDescent="0.35">
+      <c r="C689">
+        <v>3.1</v>
+      </c>
+      <c r="E689" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F689" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F690" s="1"/>
       <c r="J690" s="4"/>
       <c r="O690" s="1"/>
     </row>
-    <row r="691" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="691" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F691" s="1"/>
       <c r="J691" s="4"/>
       <c r="O691" s="1"/>
     </row>
-    <row r="692" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="692" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F692" s="1"/>
       <c r="J692" s="6"/>
       <c r="O692" s="1"/>
     </row>
-    <row r="693" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="693" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F693" s="1"/>
       <c r="O693" s="1"/>
     </row>
-    <row r="694" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="694" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F694" s="1"/>
       <c r="O694" s="1"/>
     </row>
-    <row r="695" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="695" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F695" s="1"/>
       <c r="O695" s="1"/>
     </row>
-    <row r="696" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="696" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F696" s="1"/>
       <c r="O696" s="1"/>
     </row>
-    <row r="697" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="697" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F697" s="1"/>
       <c r="O697" s="1"/>
     </row>
-    <row r="698" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="698" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F698" s="1"/>
       <c r="O698" s="1"/>
     </row>
-    <row r="699" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="699" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F699" s="1"/>
       <c r="O699" s="1"/>
     </row>
-    <row r="700" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="700" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F700" s="1"/>
       <c r="O700" s="1"/>
     </row>
-    <row r="701" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="701" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F701" s="1"/>
       <c r="O701" s="1"/>
     </row>
-    <row r="702" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="702" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F702" s="1"/>
       <c r="O702" s="1"/>
     </row>
-    <row r="703" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="703" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F703" s="1"/>
       <c r="O703" s="1"/>
     </row>
-    <row r="704" spans="6:15" ht="27" x14ac:dyDescent="0.35">
+    <row r="704" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F704" s="1"/>
       <c r="O704" s="1"/>
     </row>
@@ -39164,6 +39199,7 @@
       <c r="O1475" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A12:T689" xr:uid="{AEB22C3B-2387-42D1-90F7-9A70021B8E2D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E13:S632">
     <sortCondition ref="O13:O632"/>
     <sortCondition ref="F13:F632"/>
@@ -39226,18 +39262,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="251" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="237" customWidth="1"/>
-    <col min="3" max="3" width="87.85546875" style="251" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="251" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="251" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" style="251" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="251" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="251" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" style="251" customWidth="1"/>
-    <col min="10" max="10" width="69.7109375" style="251" customWidth="1"/>
-    <col min="11" max="11" width="46.140625" style="251" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="251"/>
+    <col min="1" max="1" width="16.85546875" style="251" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.5703125" style="237" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="87.85546875" style="251" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.7109375" style="251" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.85546875" style="251" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.85546875" style="251" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7109375" style="251" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" style="251" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="34.85546875" style="251" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.7109375" style="251" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="46.140625" style="251" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="14.42578125" style="251" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.4">
@@ -48512,7 +48548,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -48909,14 +48945,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="47" defaultRowHeight="110.1" customHeight="1" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="47" style="185"/>
-    <col min="2" max="2" width="101.28515625" style="148" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="204" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="204" customWidth="1"/>
-    <col min="5" max="8" width="47" style="185"/>
-    <col min="9" max="9" width="62.7109375" style="149" customWidth="1"/>
-    <col min="10" max="10" width="66.7109375" style="185" customWidth="1"/>
-    <col min="11" max="16384" width="47" style="185"/>
+    <col min="1" max="1" width="47" style="185" collapsed="1"/>
+    <col min="2" max="2" width="101.28515625" style="148" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" style="204" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.85546875" style="204" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="47" style="185" collapsed="1"/>
+    <col min="9" max="9" width="62.7109375" style="149" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="66.7109375" style="185" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="47" style="185" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="213" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/excel/a.xlsx
+++ b/excel/a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexis\IdeaProjects\SynchExcel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A5B13C-6EBA-4287-B42D-4155834B615B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6634F4-8ECA-4F65-B1E9-DF14E14F6F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3360" windowWidth="21600" windowHeight="12240" tabRatio="235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="1065" windowWidth="21600" windowHeight="12240" tabRatio="235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" ΦΥΛΛΟ 1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="1026">
   <si>
     <t>ΑΠΟΘΗΚΗ ΚΑΤΩ</t>
   </si>
@@ -3432,18 +3432,6 @@
   </si>
   <si>
     <t>ΤΕΛΕΥΤΑΙΑ ΤΙΜΗ ΑΓΟΡΑΣ</t>
-  </si>
-  <si>
-    <t>5998711723491</t>
-  </si>
-  <si>
-    <t>ΣOKOΛ. MILKA KAPAMEΛA 100GRX15</t>
-  </si>
-  <si>
-    <t>8711800114157</t>
-  </si>
-  <si>
-    <t>PRONTO KPEMA 12X250ML</t>
   </si>
 </sst>
 </file>
@@ -4941,10 +4929,10 @@
   <dimension ref="A1:T1475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B687" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B440" sqref="B440"/>
+      <selection pane="bottomRight" activeCell="C688" sqref="C688:G689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36024,32 +36012,16 @@
       <c r="T687" s="179"/>
     </row>
     <row r="688" spans="1:20" ht="27" x14ac:dyDescent="0.35">
-      <c r="C688">
-        <v>0.70479999999999998</v>
-      </c>
-      <c r="E688" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F688" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G688">
-        <v>4</v>
-      </c>
+      <c r="C688"/>
+      <c r="E688"/>
+      <c r="F688"/>
+      <c r="G688"/>
     </row>
     <row r="689" spans="3:15" ht="27" x14ac:dyDescent="0.35">
-      <c r="C689">
-        <v>3.1</v>
-      </c>
-      <c r="E689" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F689" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G689">
-        <v>2</v>
-      </c>
+      <c r="C689"/>
+      <c r="E689"/>
+      <c r="F689"/>
+      <c r="G689"/>
     </row>
     <row r="690" spans="3:15" ht="27" x14ac:dyDescent="0.35">
       <c r="F690" s="1"/>
